--- a/src/test/java/equipo2/test usabilidad.xlsx
+++ b/src/test/java/equipo2/test usabilidad.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABEACE02EC2B03DD5CD05BDE58A0" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F94F2BD5-0A52-407C-9BCB-1F6896AC3D08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E874C4-E97C-430B-8940-306AE183EDA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="39">
   <si>
     <t>Pasos esperados</t>
   </si>
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +163,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,23 +500,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.984375E-2" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="26.36328125" customWidth="1"/>
+    <col min="1" max="3" width="0.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,11 +544,11 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -559,7 +569,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
@@ -584,7 +594,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="89.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
@@ -609,7 +619,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="121" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -634,7 +644,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -659,11 +669,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -684,7 +694,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -695,7 +705,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -706,7 +716,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -717,7 +727,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -728,7 +738,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -739,7 +749,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -750,7 +760,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -761,7 +771,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -772,7 +782,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -783,7 +793,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -794,7 +804,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -805,7 +815,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -816,7 +826,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -827,7 +837,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -838,7 +848,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -849,7 +859,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -860,7 +870,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -871,7 +881,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -882,7 +892,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -893,7 +903,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -904,7 +914,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -915,7 +925,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -926,7 +936,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -937,7 +947,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -948,7 +958,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
